--- a/ttcomplete.xlsx
+++ b/ttcomplete.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{050402A3-F177-4BD4-954B-6623B1CA0D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31304E7A-0C4A-42CB-B344-01D8F8C1403C}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{050402A3-F177-4BD4-954B-6623B1CA0D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1737478D-3AED-4EC8-A2B1-8C3F0DA65A0C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6C581DFB-BBA1-442B-A299-354E1D040C2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="68">
   <si>
     <t>study</t>
   </si>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t>ax+sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>blockgroup</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>epi</t>
   </si>
 </sst>
 </file>
@@ -271,6 +292,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63322470-7B36-4906-BCA5-F58BD00820C8}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -602,7 +627,7 @@
     <col min="10" max="10" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,8 +679,14 @@
       <c r="Q1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -701,11 +732,20 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
       <c r="Q2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -751,11 +791,20 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
       <c r="Q3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -801,11 +850,20 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
       <c r="Q4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -851,11 +909,20 @@
       <c r="O5" t="s">
         <v>50</v>
       </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
       <c r="Q5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -901,11 +968,20 @@
       <c r="O6" t="s">
         <v>48</v>
       </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
       <c r="Q6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -951,11 +1027,20 @@
       <c r="O7" t="s">
         <v>48</v>
       </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
       <c r="Q7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -998,11 +1083,20 @@
       <c r="O8" t="s">
         <v>50</v>
       </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
       <c r="Q8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1048,11 +1142,20 @@
       <c r="O9" t="s">
         <v>50</v>
       </c>
+      <c r="P9" t="s">
+        <v>62</v>
+      </c>
       <c r="Q9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1098,11 +1201,20 @@
       <c r="O10" t="s">
         <v>50</v>
       </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
       <c r="Q10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1148,11 +1260,20 @@
       <c r="O11" t="s">
         <v>48</v>
       </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
       <c r="Q11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1198,11 +1319,20 @@
       <c r="O12" t="s">
         <v>48</v>
       </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
       <c r="Q12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1248,11 +1378,20 @@
       <c r="O13" t="s">
         <v>48</v>
       </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
       <c r="Q13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1298,11 +1437,20 @@
       <c r="O14" t="s">
         <v>50</v>
       </c>
+      <c r="P14" t="s">
+        <v>62</v>
+      </c>
       <c r="Q14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1348,11 +1496,20 @@
       <c r="O15" t="s">
         <v>48</v>
       </c>
+      <c r="P15" t="s">
+        <v>62</v>
+      </c>
       <c r="Q15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1398,11 +1555,20 @@
       <c r="O16" t="s">
         <v>50</v>
       </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
       <c r="Q16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1448,11 +1614,20 @@
       <c r="O17" t="s">
         <v>48</v>
       </c>
+      <c r="P17" t="s">
+        <v>62</v>
+      </c>
       <c r="Q17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1498,11 +1673,20 @@
       <c r="O18" t="s">
         <v>48</v>
       </c>
+      <c r="P18" t="s">
+        <v>62</v>
+      </c>
       <c r="Q18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R18" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1548,11 +1732,20 @@
       <c r="O19" t="s">
         <v>50</v>
       </c>
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
       <c r="Q19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R19" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1598,11 +1791,20 @@
       <c r="O20" t="s">
         <v>50</v>
       </c>
+      <c r="P20" t="s">
+        <v>61</v>
+      </c>
       <c r="Q20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R20" t="s">
+        <v>64</v>
+      </c>
+      <c r="S20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1648,8 +1850,17 @@
       <c r="O21" t="s">
         <v>50</v>
       </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
       <c r="Q21" t="s">
         <v>51</v>
+      </c>
+      <c r="R21" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ttcomplete.xlsx
+++ b/ttcomplete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{050402A3-F177-4BD4-954B-6623B1CA0D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1737478D-3AED-4EC8-A2B1-8C3F0DA65A0C}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{050402A3-F177-4BD4-954B-6623B1CA0D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8076F7-7EE7-4806-A64D-AE9BF333D51C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6C581DFB-BBA1-442B-A299-354E1D040C2E}"/>
+    <workbookView xWindow="8688" yWindow="3036" windowWidth="24168" windowHeight="14388" xr2:uid="{6C581DFB-BBA1-442B-A299-354E1D040C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="primary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="73">
   <si>
     <t>study</t>
   </si>
@@ -221,25 +221,40 @@
     <t>ax+sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>blockgroup</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>epi</t>
+  </si>
+  <si>
+    <t>Upper Limb</t>
+  </si>
+  <si>
+    <t>Truncal</t>
+  </si>
+  <si>
+    <t>Lower Limb</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Developing</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
 </sst>
 </file>
@@ -615,86 +630,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63322470-7B36-4906-BCA5-F58BD00820C8}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
-        <v>63</v>
-      </c>
       <c r="S1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Sripriya 2023</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2023</v>
-      </c>
-      <c r="C2">
-        <v>21</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -703,141 +722,149 @@
         <v>21</v>
       </c>
       <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
         <v>16</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
       <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" t="s">
-        <v>64</v>
-      </c>
       <c r="S2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Bobik 2020</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2020</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>41</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25.8</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>19</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9.6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
         <v>52</v>
       </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
         <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="R3" t="s">
-        <v>64</v>
-      </c>
       <c r="S3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>B4 &amp; " " &amp; C4</f>
+        <v>Zupcic 2017</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2017</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
         <v>37</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>23</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.02</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
       <c r="L4" t="s">
         <v>48</v>
       </c>
@@ -845,58 +872,62 @@
         <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" t="s">
         <v>54</v>
       </c>
-      <c r="R4" t="s">
-        <v>65</v>
-      </c>
       <c r="S4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>B5 &amp; " " &amp; C5</f>
+        <v>Pongraweewan 2016</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2016</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>46</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>44</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6.68</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.84</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.94</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.96</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
       <c r="L5" t="s">
         <v>48</v>
       </c>
@@ -904,527 +935,563 @@
         <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
         <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
         <v>55</v>
       </c>
-      <c r="R5" t="s">
-        <v>64</v>
-      </c>
       <c r="S5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>B6 &amp; " " &amp; C6</f>
+        <v>Rohan 2014</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2014</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
         <v>19.52</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>14.32</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.87</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.94</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
         <v>51</v>
       </c>
-      <c r="R6" t="s">
-        <v>64</v>
-      </c>
       <c r="S6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>B7 &amp; " " &amp; C7</f>
+        <v>Chen 2013</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2013</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
         <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
         <v>56</v>
       </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
       <c r="S7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>B8 &amp; " " &amp; C8</f>
+        <v>Valery 2013</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2013</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>40</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>37.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8.7100000000000009</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
       <c r="M8" t="s">
         <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
         <v>56</v>
       </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
       <c r="S8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>B9 &amp; " " &amp; C9</f>
+        <v>Laur 2012</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2012</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>21</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.89</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.67</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
       <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
       <c r="N9" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
         <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" t="s">
         <v>55</v>
       </c>
-      <c r="R9" t="s">
-        <v>64</v>
-      </c>
       <c r="S9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>B10 &amp; " " &amp; C10</f>
+        <v>Gadsden 2011</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
       <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
         <v>7.3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
       <c r="L10" t="s">
         <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
         <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
         <v>57</v>
       </c>
-      <c r="R10" t="s">
-        <v>64</v>
-      </c>
       <c r="S10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>B11 &amp; " " &amp; C11</f>
+        <v>Cuvillon Fem 2009</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2009</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
         <v>22.5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>12.5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10.41</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.5599999999999996</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
       <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
         <v>49</v>
       </c>
-      <c r="M11" t="s">
-        <v>50</v>
-      </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
         <v>58</v>
       </c>
-      <c r="R11" t="s">
-        <v>66</v>
-      </c>
       <c r="S11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>B12 &amp; " " &amp; C12</f>
+        <v>Cuvillon Sci 2009</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2009</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>27.5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>15</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4.32</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
       <c r="L12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
         <v>49</v>
       </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
         <v>56</v>
       </c>
-      <c r="R12" t="s">
-        <v>66</v>
-      </c>
       <c r="S12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>B13 &amp; " " &amp; C13</f>
+        <v>Freitag 2006</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2006</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>62.8</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>33.200000000000003</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10.9</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7.84</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>14</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="K13" t="s">
-        <v>48</v>
-      </c>
       <c r="L13" t="s">
         <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
         <v>53</v>
       </c>
-      <c r="R13" t="s">
-        <v>64</v>
-      </c>
       <c r="S13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>B14 &amp; " " &amp; C14</f>
+        <v>Abdelhady 2022</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2022</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
       <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
         <v>9.77</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.97</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.36</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
-        <v>48</v>
-      </c>
       <c r="L14" t="s">
         <v>48</v>
       </c>
@@ -1432,58 +1499,62 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O14" t="s">
         <v>50</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" t="s">
         <v>53</v>
       </c>
-      <c r="R14" t="s">
-        <v>64</v>
-      </c>
       <c r="S14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>B15 &amp; " " &amp; C15</f>
+        <v>Ozmen 2013</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2013</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>39</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>38</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>25.9</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>12.05</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
       <c r="L15" t="s">
         <v>48</v>
       </c>
@@ -1491,353 +1562,377 @@
         <v>48</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" t="s">
         <v>55</v>
       </c>
-      <c r="R15" t="s">
-        <v>64</v>
-      </c>
       <c r="S15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>B16 &amp; " " &amp; C16</f>
+        <v>Laigle 2012</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2012</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
         <v>24.2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13.2</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>12</v>
       </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
       <c r="L16" t="s">
         <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
         <v>50</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" t="s">
         <v>56</v>
       </c>
-      <c r="R16" t="s">
-        <v>66</v>
-      </c>
       <c r="S16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>B17 &amp; " " &amp; C17</f>
+        <v>Keckeis 1994</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1994</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>36.1</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>27.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>11.7</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>11.4</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
       <c r="L17" t="s">
         <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" t="s">
         <v>56</v>
       </c>
-      <c r="R17" t="s">
-        <v>66</v>
-      </c>
       <c r="S17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>B18 &amp; " " &amp; C18</f>
+        <v>Martin 1993</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1993</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
         <v>23</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>14</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>33</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s">
         <v>50</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" t="s">
         <v>53</v>
       </c>
-      <c r="R18" t="s">
-        <v>64</v>
-      </c>
       <c r="S18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>B19 &amp; " " &amp; C19</f>
+        <v>Aguilera 2024</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
         <v>35</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>11.1</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>7.4</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
         <v>50</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" t="s">
         <v>53</v>
       </c>
-      <c r="R19" t="s">
-        <v>64</v>
-      </c>
       <c r="S19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>B20 &amp; " " &amp; C20</f>
+        <v>Almasi 2020</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2020</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>57</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>17.57</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>18.600000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.72</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.05</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>14</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>39</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>59</v>
       </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O20" t="s">
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" t="s">
         <v>60</v>
       </c>
-      <c r="R20" t="s">
-        <v>64</v>
-      </c>
       <c r="S20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="T20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>B21 &amp; " " &amp; C21</f>
+        <v>Kim 2011</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2011</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
         <v>25</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>19</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>17</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>13.3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="K21" t="s">
-        <v>50</v>
-      </c>
       <c r="L21" t="s">
         <v>50</v>
       </c>
@@ -1845,22 +1940,25 @@
         <v>50</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O21" t="s">
         <v>50</v>
       </c>
       <c r="P21" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q21" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" t="s">
         <v>51</v>
       </c>
-      <c r="R21" t="s">
-        <v>64</v>
-      </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="T21" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
